--- a/admin/assets/file/excel/inventory_import_sample.xlsx
+++ b/admin/assets/file/excel/inventory_import_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SKU</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Location(code)</t>
   </si>
   <si>
+    <t>Batch</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -30,6 +33,9 @@
   </si>
   <si>
     <t>d00000000</t>
+  </si>
+  <si>
+    <t>BC2500</t>
   </si>
   <si>
     <t>NRC-91</t>
@@ -109,8 +115,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -131,7 +141,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C63894"/>
+  <dimension ref="A1:D63894"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -139,46 +149,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="256" min="3" style="0" width="12.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25"/>
+    <col collapsed="false" hidden="false" max="256" min="3" style="0" width="13.6071428571429"/>
     <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63894" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="63895" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="63896" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/admin/assets/file/excel/inventory_import_sample.xlsx
+++ b/admin/assets/file/excel/inventory_import_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SKU</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Client</t>
+  </si>
+  <si>
     <t>RC-02</t>
   </si>
   <si>
@@ -36,6 +39,9 @@
   </si>
   <si>
     <t>BC2500</t>
+  </si>
+  <si>
+    <t>Jim Inc</t>
   </si>
   <si>
     <t>NRC-91</t>
@@ -120,7 +126,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -141,7 +147,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D63894"/>
+  <dimension ref="A1:E63894"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -149,9 +155,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" hidden="false" max="256" min="3" style="0" width="13.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1683673469388"/>
+    <col collapsed="false" hidden="false" max="256" min="3" style="0" width="14.7857142857143"/>
     <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -168,27 +174,33 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>80</v>
